--- a/pib-2025/PIB2025.1_Nomcandidat_Infos_administratives_Caillau.xlsx
+++ b/pib-2025/PIB2025.1_Nomcandidat_Infos_administratives_Caillau.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10321"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OwnCloud\MITI_Commun\01_AAP\Defis\_Programme_Interne_Blanc\2025\Annee_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1F34F305-85E1-654D-BC98-139F85231BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>TitreLong</t>
   </si>
@@ -81,12 +93,75 @@
   </si>
   <si>
     <t>Partenaire 2 du projet</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Caillau</t>
+  </si>
+  <si>
+    <t>Jean-Baptiste</t>
+  </si>
+  <si>
+    <t>jean-baptiste.caillau@univ-cotedazur.fr</t>
+  </si>
+  <si>
+    <t>Université Côte d’Azur</t>
+  </si>
+  <si>
+    <t>UMR 7351</t>
+  </si>
+  <si>
+    <t>LJAD</t>
+  </si>
+  <si>
+    <t>INSMI</t>
+  </si>
+  <si>
+    <t>thierry.goudon@univ-cotedazur.fr</t>
+  </si>
+  <si>
+    <t>Sugny</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>dominique.sugny@u-bourgogne.fr</t>
+  </si>
+  <si>
+    <t>Univeristé Bourgogne Europe</t>
+  </si>
+  <si>
+    <t>UMR 6303</t>
+  </si>
+  <si>
+    <t>ICB</t>
+  </si>
+  <si>
+    <t>INP</t>
+  </si>
+  <si>
+    <t>Contrôle théorique et expérimental des centres NV</t>
+  </si>
+  <si>
+    <t>CONV</t>
+  </si>
+  <si>
+    <t>Centre Est</t>
+  </si>
+  <si>
+    <t>Côte d'Azur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -350,6 +425,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,16 +727,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -671,38 +749,38 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="27" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="29" t="s">
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="25" t="s">
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="26"/>
+      <c r="AF1" s="27"/>
     </row>
-    <row r="2" spans="1:32" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -736,7 +814,7 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="14"/>
     </row>
-    <row r="3" spans="1:32" s="15" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" s="15" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -834,8 +912,76 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:32" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="25">
+        <v>11000</v>
+      </c>
+      <c r="AF4" s="25">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Gf/dnaQVmzyTf5sjSkHxiTqVABGr+r1lcbHxGfxJ6Qo/gSIah3vf/WwkbFIEUCO3ZCD2lw0U4Oxngpg14DvCaw==" saltValue="cuAKjnmIEIFOe5h0bUe8kg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>

--- a/pib-2025/PIB2025.1_Nomcandidat_Infos_administratives_Caillau.xlsx
+++ b/pib-2025/PIB2025.1_Nomcandidat_Infos_administratives_Caillau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OwnCloud\MITI_Commun\01_AAP\Defis\_Programme_Interne_Blanc\2025\Annee_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1F34F305-85E1-654D-BC98-139F85231BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{814F3C06-7955-124A-BBAF-8E31A8D52D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>TitreLong</t>
   </si>
@@ -131,9 +131,6 @@
     <t>dominique.sugny@u-bourgogne.fr</t>
   </si>
   <si>
-    <t>Univeristé Bourgogne Europe</t>
-  </si>
-  <si>
     <t>UMR 6303</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Côte d'Azur</t>
+  </si>
+  <si>
+    <t>Université Bourgogne Europe</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -938,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>27</v>
@@ -956,25 +956,25 @@
         <v>30</v>
       </c>
       <c r="O4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="Q4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="R4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="S4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="24" t="s">
+      <c r="AD4" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="AD4" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="AE4" s="25">
         <v>11000</v>
